--- a/Nguyen_Truong_Giang/Project-WPF/Ex WPF/Ex WPF/Excel/test.xlsx
+++ b/Nguyen_Truong_Giang/Project-WPF/Ex WPF/Ex WPF/Excel/test.xlsx
@@ -15,7 +15,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>TaxFactor</t>
+  </si>
   <si>
     <t>John</t>
   </si>
@@ -74,12 +89,6 @@
     <t>9 Eng St</t>
   </si>
   <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
     <t>Tom</t>
   </si>
   <si>
@@ -101,22 +110,25 @@
     <t>1 Oak St</t>
   </si>
   <si>
+    <t>Column0</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>Column5</t>
+  </si>
+  <si>
     <t/>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>TaxFactor</t>
   </si>
 </sst>
 </file>
@@ -162,111 +174,145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="0">
-        <v>18</v>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="0">
-        <v>0.15</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2" s="0">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E2" s="0">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E3" s="0">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E4" s="0">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C5" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E5" s="0">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="0">
+        <v>18</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="0">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
         <v>6</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="0">
+      <c r="B7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="0">
         <v>123</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="0">
+      <c r="D7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="0">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="0">
+        <v>123</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="0">
         <v>123</v>
       </c>
     </row>
@@ -276,6 +322,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0">
+        <v>101</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="0">
+        <v>32</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="0">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>102</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="0">
+        <v>37</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="0">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>103</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="0">
+        <v>30</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="0">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>104</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="0">
+        <v>33</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="0">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>105</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="0">
+        <v>31</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="0">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>123</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="0">
+        <v>123</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="0">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -284,51 +462,51 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0">
-        <v>101</v>
+      <c r="A1" s="0" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="0">
-        <v>32</v>
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="0">
-        <v>0.2</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>102</v>
+        <v>201</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C2" s="0">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E2" s="0">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>103</v>
+        <v>202</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C3" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E3" s="0">
         <v>0.3</v>
@@ -336,150 +514,52 @@
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>104</v>
+        <v>203</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C4" s="0">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E4" s="0">
-        <v>0.32</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>105</v>
+        <v>204</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C5" s="0">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E5" s="0">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>11</v>
+        <v>205</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C6" s="0">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E6" s="0">
-        <v>444</v>
-      </c>
-    </row>
-  </sheetData>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0">
-        <v>201</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="0">
-        <v>26</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="0">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0">
-        <v>202</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="0">
-        <v>29</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="0">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>203</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="0">
-        <v>25</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="0">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>204</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="0">
-        <v>21</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="0">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>205</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="0">
-        <v>24</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="0">
         <v>0.25</v>
       </c>
     </row>
@@ -490,7 +570,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -498,121 +578,141 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="0">
-        <v>301</v>
+        <v>37</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>0</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="0">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>2</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="0">
-        <v>0.15</v>
+        <v>3</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B3" s="0">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" s="0">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="0">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B4" s="0">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D4" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F4" s="0">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B5" s="0">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D5" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F5" s="0">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B6" s="0">
+        <v>304</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="0">
+        <v>19</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="0">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="0">
         <v>305</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="0">
+      <c r="C7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="0">
         <v>18</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="0">
+      <c r="E7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="0">
         <v>0.06</v>
       </c>
     </row>
